--- a/biology/Botanique/Laurent-Perrier/Laurent-Perrier.xlsx
+++ b/biology/Botanique/Laurent-Perrier/Laurent-Perrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le groupe Laurent-Perrier est créé en 1983[1] par Bernard de Nonancourt et est coté à la Bourse de Paris[2],[3]. 
-Le groupe distribue exclusivement du champagne. En 2019, 11,8 millions de bouteilles sont vendues et 70 % du chiffre d'affaires est réalisé à l'export[4].
+Le groupe Laurent-Perrier est créé en 1983 par Bernard de Nonancourt et est coté à la Bourse de Paris,. 
+Le groupe distribue exclusivement du champagne. En 2019, 11,8 millions de bouteilles sont vendues et 70 % du chiffre d'affaires est réalisé à l'export.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe Laurent-Perrier comprend les maisons suivantes[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe Laurent-Perrier comprend les maisons suivantes :
 Champagne Laurent-Perrier
 Champagne de Castellane
 Champagne Salon
 Champagne Delamotte
-En 2004, Laurent-Perrier rachète à la famille Trouillard Château Malakoff qui comprend les maisons de Champagne Beaumet, Jeanmaire et Oudinot[6].
+En 2004, Laurent-Perrier rachète à la famille Trouillard Château Malakoff qui comprend les maisons de Champagne Beaumet, Jeanmaire et Oudinot.
 Le portefeuille de marque est complémentaire avec une distribution sur tous les circuits (restaurants, bars, cavistes, grande distribution, etc.). 
 </t>
         </is>
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
